--- a/data_output/prism_passive/all_passive_out_emg_mean_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_submax_1.xlsx
@@ -363,57 +363,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.65748678535888261</v>
+      </c>
       <c r="C2">
+        <v>1.2197679278621278</v>
+      </c>
+      <c r="D2">
+        <v>5.188617143582217</v>
+      </c>
+      <c r="E2">
+        <v>3.9809603389109953</v>
+      </c>
+      <c r="F2">
+        <v>11.232670649554011</v>
+      </c>
+      <c r="G2">
+        <v>3.6819238407002759</v>
+      </c>
+      <c r="H2">
+        <v>7.2110402939992984</v>
+      </c>
+      <c r="I2">
+        <v>1.3580648792029264</v>
+      </c>
+      <c r="J2">
+        <v>6.1569371155997494</v>
+      </c>
+      <c r="K2">
+        <v>7.2367425540693207</v>
+      </c>
+      <c r="L2">
+        <v>1.150857610270662</v>
+      </c>
+      <c r="O2">
         <v>1.7399522672071175</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.7110624271102939</v>
+      </c>
+      <c r="Q2">
+        <v>1.6912942014156163</v>
+      </c>
+      <c r="S2">
+        <v>8.0744723837491144</v>
+      </c>
+      <c r="V2">
+        <v>9.9739915685589047</v>
+      </c>
+      <c r="W2">
+        <v>2.6985532583429599</v>
+      </c>
+      <c r="X2">
+        <v>0.58876102645818817</v>
+      </c>
+      <c r="AA2">
+        <v>1.8627623667151927</v>
+      </c>
+      <c r="AB2">
+        <v>0.27471698691967134</v>
+      </c>
+      <c r="AC2">
+        <v>5.311106622065247</v>
+      </c>
+      <c r="AD2">
+        <v>1.6213463881681824</v>
+      </c>
+      <c r="AE2">
+        <v>4.4929496591925604</v>
+      </c>
+      <c r="AF2">
+        <v>3.8683576677703506</v>
+      </c>
+      <c r="AG2">
+        <v>4.211399285549156</v>
+      </c>
+      <c r="AH2">
+        <v>1.7625062757894572</v>
+      </c>
+      <c r="AI2">
+        <v>6.6796438439877592</v>
+      </c>
+      <c r="AJ2">
+        <v>8.1233304533326809</v>
+      </c>
+      <c r="AK2">
+        <v>1.2460931943824773</v>
+      </c>
+      <c r="AL2">
+        <v>1.8749234214383825</v>
+      </c>
+      <c r="AM2">
         <v>0.15815196498536385</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.6969554958439521</v>
       </c>
+      <c r="AO2">
+        <v>2.2628148227360869</v>
+      </c>
+      <c r="AQ2">
+        <v>2.1151563931495514</v>
+      </c>
+      <c r="AR2">
+        <v>4.5311617364765331</v>
+      </c>
+      <c r="AS2">
+        <v>3.1204997442662039</v>
+      </c>
+      <c r="AU2">
+        <v>7.2469450636811912</v>
+      </c>
+      <c r="AV2">
+        <v>0.95088244081643403</v>
+      </c>
+      <c r="AW2">
+        <v>0.3896285943382079</v>
+      </c>
+      <c r="AX2">
+        <v>0.26057725215912581</v>
+      </c>
+      <c r="AY2">
+        <v>1.8833792811831565</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.7407104018058823</v>
+      </c>
+      <c r="C3">
+        <v>1.2583029452858983</v>
+      </c>
+      <c r="E3">
+        <v>8.6332965775068438</v>
+      </c>
+      <c r="F3">
+        <v>2.693810138322454</v>
+      </c>
+      <c r="G3">
+        <v>3.4389560635739578</v>
+      </c>
+      <c r="H3">
+        <v>7.9151114096720026</v>
+      </c>
+      <c r="J3">
+        <v>4.1505586141307393</v>
+      </c>
+      <c r="K3">
+        <v>5.3739529351718307</v>
+      </c>
+      <c r="L3">
+        <v>1.527514603444418</v>
+      </c>
+      <c r="M3">
+        <v>4.0227293384734049</v>
+      </c>
+      <c r="N3">
         <v>0.40083234399594792</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.8848302129694392</v>
+      </c>
+      <c r="Q3">
+        <v>1.7243745218129445</v>
+      </c>
+      <c r="R3">
+        <v>3.975104468433043</v>
+      </c>
+      <c r="W3">
+        <v>1.1483013192146989</v>
+      </c>
+      <c r="AA3">
+        <v>1.2556832297715588</v>
+      </c>
+      <c r="AB3">
+        <v>4.2174428222219964</v>
+      </c>
+      <c r="AC3">
+        <v>3.2110730645544776</v>
+      </c>
+      <c r="AD3">
+        <v>3.1566346315372531</v>
+      </c>
+      <c r="AE3">
+        <v>1.3421738524013513</v>
+      </c>
+      <c r="AF3">
+        <v>0.90409543208209497</v>
+      </c>
+      <c r="AG3">
+        <v>3.2339698810974262</v>
+      </c>
+      <c r="AH3">
+        <v>0.68158270837520374</v>
+      </c>
+      <c r="AI3">
+        <v>3.4563468934605743</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5330344232472521</v>
+      </c>
+      <c r="AK3">
+        <v>1.5335157399578629</v>
+      </c>
+      <c r="AL3">
+        <v>2.4699074897273596</v>
+      </c>
+      <c r="AM3">
         <v>0.64767056284948743</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.2541660434331212</v>
+      </c>
+      <c r="AO3">
+        <v>1.2848430883621547</v>
+      </c>
+      <c r="AP3">
+        <v>0.38410665463592408</v>
+      </c>
+      <c r="AQ3">
+        <v>1.1037804686355879</v>
+      </c>
+      <c r="AS3">
+        <v>0.92785034588696946</v>
+      </c>
+      <c r="AT3">
+        <v>1.8443746524754363</v>
+      </c>
+      <c r="AU3">
+        <v>7.2087443588937532</v>
+      </c>
+      <c r="AV3">
+        <v>0.67581714220775424</v>
+      </c>
+      <c r="AW3">
+        <v>0.7690216599088977</v>
+      </c>
+      <c r="AX3">
+        <v>1.6339929960716</v>
+      </c>
+      <c r="AY3">
+        <v>4.756495870719446</v>
       </c>
     </row>
   </sheetData>
